--- a/Material_de_estudio/ISW_Clases_grabadas.xlsx
+++ b/Material_de_estudio/ISW_Clases_grabadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickaelacrespo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mati\Documents\ISW_Grupo_3_2022\Material_de_estudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75359550-50FB-D34D-A274-CA9C1D460349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AED1E2-E738-4D54-A27D-C946ACFDFF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{3F818E14-DC60-7E46-A7A9-26B234C2E033}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F818E14-DC60-7E46-A7A9-26B234C2E033}"/>
   </bookViews>
   <sheets>
     <sheet name="Teorico" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
   <si>
     <t>Temas Teoricos</t>
   </si>
@@ -312,6 +312,15 @@
   </si>
   <si>
     <t>Testing de Caja Negra</t>
+  </si>
+  <si>
+    <t>EXAMEN</t>
+  </si>
+  <si>
+    <t>SEGUNDO</t>
+  </si>
+  <si>
+    <t>PRIMER</t>
   </si>
 </sst>
 </file>
@@ -395,7 +404,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,8 +417,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -417,12 +438,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -436,28 +472,55 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -474,7 +537,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -773,21 +836,21 @@
   <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -803,54 +866,62 @@
       <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="F1" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="11" t="s">
+      <c r="F2" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="1"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="24" t="s">
         <v>8</v>
       </c>
+      <c r="F4" s="25"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="1"/>
@@ -858,22 +929,23 @@
       <c r="K4" s="6"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="24" t="s">
         <v>34</v>
       </c>
+      <c r="F5" s="25"/>
       <c r="G5" s="6"/>
       <c r="H5" s="1"/>
       <c r="I5" s="4"/>
@@ -882,20 +954,21 @@
       <c r="L5" s="1"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="1"/>
       <c r="H6" s="6"/>
       <c r="I6" s="8"/>
@@ -903,22 +976,23 @@
       <c r="K6" s="6"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="24" t="s">
         <v>38</v>
       </c>
+      <c r="F7" s="25"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="8"/>
@@ -927,19 +1001,21 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="24" t="s">
         <v>37</v>
       </c>
+      <c r="F8" s="25"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="8"/>
@@ -948,21 +1024,24 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="17" t="s">
         <v>39</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -970,171 +1049,180 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="18"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="17" t="s">
         <v>40</v>
       </c>
+      <c r="F10" s="19"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="8"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="18"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="17" t="s">
         <v>41</v>
       </c>
+      <c r="F11" s="19"/>
       <c r="G11" s="1"/>
       <c r="H11" s="6"/>
       <c r="I11" s="8"/>
       <c r="J11" s="6"/>
       <c r="K11" s="1"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="17" t="s">
         <v>42</v>
       </c>
+      <c r="F12" s="19"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="17" t="s">
         <v>44</v>
       </c>
+      <c r="F13" s="19"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="3" t="s">
+      <c r="B14" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="19"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="3" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="17" t="s">
         <v>49</v>
       </c>
+      <c r="F16" s="19"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F27" s="6"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F28" s="6"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F29" s="6"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F30" s="6"/>
       <c r="G30" s="8"/>
       <c r="H30" s="6"/>
@@ -1143,7 +1231,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F31" s="6"/>
       <c r="G31" s="8"/>
       <c r="H31" s="6"/>
@@ -1152,7 +1240,7 @@
       <c r="K31" s="6"/>
       <c r="L31" s="10"/>
     </row>
-    <row r="32" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G32" s="6"/>
       <c r="H32" s="8"/>
       <c r="I32" s="6"/>
@@ -1160,7 +1248,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G33" s="6"/>
       <c r="H33" s="8"/>
       <c r="I33" s="6"/>
@@ -1168,7 +1256,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G34" s="6"/>
       <c r="H34" s="8"/>
       <c r="I34" s="6"/>
@@ -1176,7 +1264,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G35" s="6"/>
       <c r="H35" s="8"/>
       <c r="I35" s="6"/>
@@ -1184,7 +1272,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1192,7 +1280,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="62" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G62" s="6"/>
       <c r="H62" s="8"/>
       <c r="I62" s="6"/>
@@ -1200,7 +1288,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="7"/>
     </row>
-    <row r="63" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G63" s="1"/>
       <c r="H63" s="4"/>
       <c r="I63" s="1"/>
@@ -1208,7 +1296,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G64" s="1"/>
       <c r="H64" s="4"/>
       <c r="I64" s="1"/>
@@ -1216,7 +1304,7 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G65" s="1"/>
       <c r="H65" s="4"/>
       <c r="I65" s="1"/>
@@ -1224,7 +1312,7 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G66" s="1"/>
       <c r="H66" s="4"/>
       <c r="I66" s="5"/>
@@ -1232,7 +1320,7 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G67" s="1"/>
       <c r="H67" s="4"/>
       <c r="I67" s="1"/>
@@ -1240,7 +1328,7 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G68" s="1"/>
       <c r="H68" s="4"/>
       <c r="I68" s="5"/>
@@ -1248,7 +1336,7 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G69" s="1"/>
       <c r="H69" s="4"/>
       <c r="I69" s="1"/>
@@ -1256,9 +1344,14 @@
       <c r="K69" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="F9:F16"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="https://youtu.be/sBQXKtvrh40" xr:uid="{8297B061-E664-0645-8955-9CC209ADF169}"/>
@@ -1294,8 +1387,8 @@
     <hyperlink ref="D9" r:id="rId31" display="https://youtu.be/iWBrNpvbPzM" xr:uid="{7D37424B-C49D-434A-831B-248D57AEA054}"/>
     <hyperlink ref="D12" r:id="rId32" display="https://youtu.be/EKwmnR-XxbE" xr:uid="{CD06F85C-D1DD-6944-8001-65F263D7B34D}"/>
     <hyperlink ref="D16" r:id="rId33" display="https://youtu.be/VrJXOmF7YzE" xr:uid="{D0C78E16-9837-CD4C-99B4-2E3996994C38}"/>
-    <hyperlink ref="C15" r:id="rId34" xr:uid="{5DB3731C-58BC-0F43-B21C-F702D3F83E50}"/>
-    <hyperlink ref="E15" r:id="rId35" display="https://youtu.be/Ne3Kgl8ZMgE" xr:uid="{81495C18-B2EF-7E45-BAC7-759465D1F25C}"/>
+    <hyperlink ref="C14" r:id="rId34" xr:uid="{5DB3731C-58BC-0F43-B21C-F702D3F83E50}"/>
+    <hyperlink ref="E14" r:id="rId35" display="https://youtu.be/Ne3Kgl8ZMgE" xr:uid="{81495C18-B2EF-7E45-BAC7-759465D1F25C}"/>
     <hyperlink ref="D14" r:id="rId36" xr:uid="{D0B8E62D-993E-AD44-A1F0-E0293B04C885}"/>
     <hyperlink ref="D15" r:id="rId37" xr:uid="{510F12F9-1112-9043-91D1-53369F3BF79F}"/>
   </hyperlinks>
@@ -1311,16 +1404,16 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -1337,7 +1430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1347,7 +1440,7 @@
       <c r="C2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="12" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1360,7 +1453,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1383,7 +1476,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -1404,7 +1497,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1425,7 +1518,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1448,7 +1541,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>25</v>
       </c>
@@ -1471,7 +1564,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="7"/>
       <c r="C8" s="3" t="s">
@@ -1485,7 +1578,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1506,9 +1599,9 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="16"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1529,9 +1622,9 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="16"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1551,7 +1644,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
@@ -1565,7 +1658,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H13" s="6"/>
       <c r="I13" s="8"/>
       <c r="J13" s="6"/>
@@ -1573,7 +1666,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H14" s="6"/>
       <c r="I14" s="8"/>
       <c r="J14" s="6"/>
@@ -1581,7 +1674,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H15" s="6"/>
       <c r="I15" s="8"/>
       <c r="J15" s="6"/>
@@ -1589,7 +1682,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
       <c r="J16" s="1"/>
@@ -1597,14 +1690,14 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
       <c r="H17" s="1"/>
       <c r="I17" s="4"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G18" s="6"/>
       <c r="H18" s="1"/>
       <c r="I18" s="4"/>
@@ -1612,7 +1705,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G19" s="6"/>
       <c r="H19" s="1"/>
       <c r="I19" s="4"/>
@@ -1620,7 +1713,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="1"/>
@@ -1628,7 +1721,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G21" s="1"/>
       <c r="H21" s="6"/>
       <c r="I21" s="1"/>
@@ -1636,7 +1729,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G22" s="1"/>
       <c r="H22" s="8"/>
       <c r="I22" s="1"/>
@@ -1644,29 +1737,29 @@
       <c r="K22" s="1"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="7:13" x14ac:dyDescent="0.25">
       <c r="L23" s="1"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G24" s="6"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="14"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G25" s="6"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="17"/>
+      <c r="I25" s="13"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="7:13" x14ac:dyDescent="0.25">
       <c r="H26" s="1"/>
       <c r="I26" s="4"/>
       <c r="J26" s="1"/>
@@ -1674,15 +1767,15 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="54" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G54" s="1"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G55" s="1"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="57" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G57" s="1"/>
       <c r="H57" s="4"/>
       <c r="I57" s="5"/>
@@ -1690,7 +1783,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="59" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G59" s="6"/>
       <c r="H59" s="8"/>
       <c r="I59" s="6"/>
@@ -1698,7 +1791,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="7"/>
     </row>
-    <row r="60" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G60" s="6"/>
       <c r="H60" s="8"/>
       <c r="I60" s="6"/>
@@ -1706,7 +1799,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="7"/>
     </row>
-    <row r="61" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G61" s="1"/>
       <c r="H61" s="4"/>
       <c r="I61" s="1"/>
@@ -1714,7 +1807,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G62" s="1"/>
       <c r="H62" s="4"/>
       <c r="I62" s="1"/>
@@ -1722,7 +1815,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G63" s="1"/>
       <c r="H63" s="4"/>
       <c r="I63" s="1"/>
@@ -1730,7 +1823,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G64" s="1"/>
       <c r="H64" s="4"/>
       <c r="I64" s="5"/>
@@ -1738,7 +1831,7 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G65" s="1"/>
       <c r="H65" s="4"/>
       <c r="I65" s="1"/>
@@ -1746,7 +1839,7 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G66" s="1"/>
       <c r="H66" s="4"/>
       <c r="I66" s="5"/>
@@ -1754,7 +1847,7 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G67" s="1"/>
       <c r="H67" s="4"/>
       <c r="I67" s="1"/>
